--- a/docs/requirements/MOSIP_Partner Management Requirements.xlsx
+++ b/docs/requirements/MOSIP_Partner Management Requirements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Sr No.</t>
   </si>
@@ -85,84 +85,16 @@
     <t>Partner ID Validation</t>
   </si>
   <si>
-    <t>1. Validate length of a Partner ID as configured and respond as mentioned below
-a. If found valid, respond with "Valid"
-b. if found invalid, respond with "Invalid"</t>
-  </si>
-  <si>
-    <t>1. Validate length of a License Key as configured and respond as mentioned below
-a. If found valid, respond with "Valid"
-b. if found invalid, respond with "Invalid"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kernel </t>
   </si>
   <si>
-    <t>Policy ID Generation</t>
-  </si>
-  <si>
-    <t>1. Generate Policy ID for following policies
-a. OTP Trigger 
-b. OTP Authentication
-c. Demo Authentication 
-d. Biometric Authentication - FMR Data Match 
-e. Biometric Authentication - IIR Data Match  
-f. Biometric Authentication - FID Data Match 
-g. Static Pin Authentication
-h. eKYC - all combinations of eKYC demo fields 
-i. Masked UIN
-j. UIN
-2. Generate Policy id as per below logic
-a. Random ID generation
-b. Length should be 10 Digits (Configurable)</t>
-  </si>
-  <si>
-    <t>Policy ID Validation</t>
-  </si>
-  <si>
-    <t>1. Validate length of a Policy ID as configured and respond as mentioned below
-a. If found valid, respond with "Valid"
-b. if found invalid, respond with "Invalid"</t>
-  </si>
-  <si>
-    <t>Policy ID</t>
-  </si>
-  <si>
-    <t>1. Receive request to retreive policies based on Partner ID and Policy ID
-2. Respond appropirately if Partner ID or Policy ID does not exist</t>
-  </si>
-  <si>
     <t>Partner Registration</t>
   </si>
   <si>
     <t>MISP - Partner Mapping</t>
   </si>
   <si>
-    <t>1. Receive a request to map MISP to a Partner with MISP ID and Partner ID as Input
-2. There can ve a many-to-mapping between MISPs and Partners</t>
-  </si>
-  <si>
-    <t>Partner Certiicate Validation</t>
-  </si>
-  <si>
-    <t>Partner Certificate Signing and RE-issueing</t>
-  </si>
-  <si>
-    <t>1. Receive certificate from Partner
-2. Verify CA Authority of the certificate</t>
-  </si>
-  <si>
     <t>Distribution of Public Key to Partners</t>
-  </si>
-  <si>
-    <t>1. Distribute Public Key to Partners correspinding to the Private Key used to signed the Certificate
-2. Public key needs to be distributed priodically whenever the Private Key is rotated</t>
-  </si>
-  <si>
-    <t>1. Receive certificate from Partner during Partner Registration
-2. Sign the Partner Certificate with MOSIP Private Key and issue a certificate chain
-3. Re-issue certficate back to the Partner
-4. Private key to change priodically as per the Key Rotation Policy set by admin</t>
   </si>
   <si>
     <t>Device Registration</t>
@@ -182,6 +114,24 @@
 b. License Key should be alphanumeric
 c. Length should be 8 digits (Configurable)
 d. Should be mapped to an expiry</t>
+  </si>
+  <si>
+    <t>Yet to analyzed</t>
+  </si>
+  <si>
+    <t>Component already exist as TSP ID generator</t>
+  </si>
+  <si>
+    <t>Partner Management (MISP and E-KYC/Auth Partners)</t>
+  </si>
+  <si>
+    <t>1. Validate status of Lisence Key and respond as mentioned below
+a. If found expired, respond with "Your License Key is EXPIRED. Please regenrate a new License Key"
+b. If found temporarily sespended, respond with "Your License Key is temporarily SUSPENDED. Please contact MOSIP Administration"
+c. If found permanently blocked, respond with "Your License Key is BLOCKED. Please contact MOSIP Administration"</t>
+  </si>
+  <si>
+    <t>Map Policies to Partners</t>
   </si>
   <si>
     <t>1. Receive request to register a Partner with follwing parameters
@@ -190,25 +140,58 @@
 c. Partner Phone
 d. Partner Email ID
 2. Issue and Map Partner ID
-3. Map Policy ID to the Partner
+3. Map Policies to the Partner
 a. Multiple Policies can be mapped to a Partner
 b. A Partner can have a policy for both Auth and E-KYC
 4. Store the Partner in MOSIP</t>
   </si>
   <si>
-    <t>Yet to analyzed</t>
-  </si>
-  <si>
-    <t>Component already exist as TSP ID generator</t>
-  </si>
-  <si>
-    <t>Partner Management (MISP and E-KYC/Auth Partners)</t>
-  </si>
-  <si>
-    <t>1. Validate status of Lisence Key and respond as mentioned below
-a. If found expired, respond with "Your License Key is EXPIRED. Please regenrate a new License Key"
-b. If found temporarily sespended, respond with "Your License Key is temporarily SUSPENDED. Please contact MOSIP Administration"
-c. If found permanently blocked, respond with "Your License Key is BLOCKED. Please contact MOSIP Administration"</t>
+    <t>Retrieve Policies based on Partner ID</t>
+  </si>
+  <si>
+    <t>1. Receive a request to map MISP to a Partner with MISP ID and Partner ID as Input
+2. There can be a many-to-mapping between MISPs and Partners</t>
+  </si>
+  <si>
+    <t>Partner Certificate Validation</t>
+  </si>
+  <si>
+    <t>1. Distribute Public Key to Partners for encrypting the Auth Request befoe sending it to the MOSIP
+2. Public key needs to be distributed priodically whenever the correspinding Private Key is rotated</t>
+  </si>
+  <si>
+    <t>1. Validate length of a License Key as configured and respond as mentioned below
+a. If found valid, respond with "VALID"
+b. if found invalid, respond with "INVALID"</t>
+  </si>
+  <si>
+    <t>1. Validate length of a Partner ID as configured and respond as mentioned below
+a. If found valid, respond with "VALID"
+b. if found invalid, respond with "INVALID"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Map following Policies to Partners
+a. Auth Policies ( can be Mandatory/Non-Mandatory)
+     1. OTP Trigger 
+     2. OTP Authentication
+     3. Demo Authentication 
+     4. Biometric Authentication - FMR Data Match 
+     5. Biometric Authentication - IIR Data Match  
+     6. Biometric Authentication - FID Data Match 
+b. E-Kyc Policies (can be Required/Not Required)
+    1. eKYC - all combinations of eKYC demo fields </t>
+  </si>
+  <si>
+    <t>1. Receive request to retreive policies based on Partner ID
+2. Respond appropirately if Partner ID does not exist</t>
+  </si>
+  <si>
+    <t>1. Upload Digital Certificate on Admin Portal for a Partner
+2. Verify CA Authority of the certificate
+3. Sign the certificate with MOSIP Certificate
+4. Respond to the source with the re-issued certificate
+5. Certificate will be uploaded by the MOSIP admin. The Registered Partner will send the certificate to the MOSIP Admin through ofline process. Re-issued certificate will be sent to the Partner by MOSIP admin through notification/offline process
+6. Private key to change priodically as per the Key Rotation Policy set by admin</t>
   </si>
 </sst>
 </file>
@@ -450,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -461,9 +444,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -495,29 +475,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -641,6 +598,29 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -657,14 +637,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B2:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:F18"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Sr No." dataDxfId="6"/>
-    <tableColumn id="2" name="Module" dataDxfId="5"/>
-    <tableColumn id="3" name="Feature" dataDxfId="4"/>
-    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="3"/>
-    <tableColumn id="5" name="Comments" dataDxfId="2"/>
+    <tableColumn id="1" name="Sr No." dataDxfId="4"/>
+    <tableColumn id="2" name="Module" dataDxfId="3"/>
+    <tableColumn id="3" name="Feature" dataDxfId="2"/>
+    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="1"/>
+    <tableColumn id="5" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,28 +929,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -984,11 +964,11 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -1002,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -1017,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1032,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1077,179 +1057,149 @@
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:6" ht="203" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="145" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="145" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="145" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="8">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="4">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
-        <v>18</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>41</v>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/MOSIP_Partner Management Requirements.xlsx
+++ b/docs/requirements/MOSIP_Partner Management Requirements.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Sr No.</t>
   </si>
@@ -45,160 +46,573 @@
     <t>MISP License Key Generation</t>
   </si>
   <si>
-    <t>MISP License Key Pattern Validation</t>
-  </si>
-  <si>
-    <t>MSIP License Key Expiry Validation</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>MISP Registration</t>
-  </si>
-  <si>
-    <t>1. Receive request to register a MISP with follwing parameters
+    <t>Partner ID Generation</t>
+  </si>
+  <si>
+    <t>1. Generate Partner ID as per below logic
+a. Partner ID should be of 4 digits (Configurable)
+b. Partner ID should be generated sequentially
+c. Partner ID should be generated incrementally for every request</t>
+  </si>
+  <si>
+    <t>1. Generate MISP ID as per below logic
+a. MISP ID should be of 3 digits (Configurable)
+b. MISP ID should be generated sequentially
+c. MISP ID should be generated incrementally for every request</t>
+  </si>
+  <si>
+    <t>Partner ID Validation</t>
+  </si>
+  <si>
+    <t>Distribution of Public Key to Partners</t>
+  </si>
+  <si>
+    <t>Device Registration</t>
+  </si>
+  <si>
+    <t>Device Provider Registration</t>
+  </si>
+  <si>
+    <t>RD Service Registration</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Yet to analyzed</t>
+  </si>
+  <si>
+    <t>Partner Management (MISP and E-KYC/Auth Partners)</t>
+  </si>
+  <si>
+    <t>Partner Certificate Validation</t>
+  </si>
+  <si>
+    <t>1. Validate length of a Partner ID as configured and respond as mentioned below
+a. If found valid, respond with "VALID"
+b. if found invalid, respond with "INVALID"</t>
+  </si>
+  <si>
+    <t>Component already exist as TSP ID generator
+ID Length to be re-confirmed with CPU team</t>
+  </si>
+  <si>
+    <t>ID Length to be re-confirmed with CPU team</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Generate a License Key as per below logic
+a. License Key generation to follow random pattern
+b. License Key should be alphanumeric
+c. Length should be 8 digits </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Configurable)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+d. Should be mapped to an expiry (Configurable)</t>
+    </r>
+  </si>
+  <si>
+    <t>To check Partner status</t>
+  </si>
+  <si>
+    <t>To Update/Delete a Partner</t>
+  </si>
+  <si>
+    <t>Includes Activation/Deactivation</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Also deactivate License key</t>
+  </si>
+  <si>
+    <t>Fields to be reviwed</t>
+  </si>
+  <si>
+    <t>CRUD of MISP and Partner Mapping</t>
+  </si>
+  <si>
+    <t>For Fetching, we will receive MISP LK and Partner ID</t>
+  </si>
+  <si>
+    <t>1. Distribute Public Key to Partners for encrypting the Auth Request befoe sending it to the MOSIP
+2. Public key needs to be distributed priodically whenever the corresponding Private Key is rotated</t>
+  </si>
+  <si>
+    <t>Notification/Offline?</t>
+  </si>
+  <si>
+    <t>1. Import Digital Certificate on Admin Portal for a Partner
+2. Verify CA Authority of the certificate
+3. Sign the certificate with MOSIP Certificate
+4. Respond to the source with the re-issued certificate
+5. Certificate will be uploaded by the MOSIP admin. The Registered Partner will send the certificate to the MOSIP Admin through ofline process. Re-issued certificate will be sent to the Partner by MOSIP admin through notification/offline process</t>
+  </si>
+  <si>
+    <t>MSIP License Key Validation</t>
+  </si>
+  <si>
+    <t>1. Validate the pattern and status of Lisence Key and respond as mentioned below
+a. if found of invalid length,  respond with "Your License Key is INVALID"
+b. If found expired, respond with "Your License Key is EXPIRED. Please regenrate a new License Key"
+c. If found temporarily sespended, respond with "Your License Key is temporarily SUSPENDED. Please contact MOSIP Administration"
+d. If found permanently blocked, respond with "Your License Key is BLOCKED. Please contact MOSIP Administration"
+f. If found valid and active, respond with " Your License Key is VALID and ACTIVE".</t>
+  </si>
+  <si>
+    <t>To Update/Delete a MISP</t>
+  </si>
+  <si>
+    <t>Since a License Key can be expired, temporarily suspended or permanetly blocked, IDA will use this API to validate the status of LK when receiveing a Auth request</t>
+  </si>
+  <si>
+    <t>MISP Creation/Updation/Deletion/Fetcher</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Receive request to register a MISP with follwing parameters
 a. MISP Name
 b. MISP Contact Name
 c. MISP Phone
 d. MISP Email ID
+e Is Active status
 2. Issue and Map MISP ID
 3. Issue and Map Lisence Key
-4. Store the MISP in MOSIP</t>
-  </si>
-  <si>
-    <t>Partner ID Generation</t>
-  </si>
-  <si>
-    <t>1. Generate Partner ID as per below logic
-a. Partner ID should be of 4 digits (Configurable)
-b. Partner ID should be generated sequentially
-c. Partner ID should be generated incrementally for every request</t>
-  </si>
-  <si>
-    <t>1. Generate MISP ID as per below logic
-a. MISP ID should be of 3 digits (Configurable)
-b. MISP ID should be generated sequentially
-c. MISP ID should be generated incrementally for every request</t>
-  </si>
-  <si>
-    <t>Partner ID Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kernel </t>
-  </si>
-  <si>
-    <t>Partner Registration</t>
-  </si>
-  <si>
-    <t>MISP - Partner Mapping</t>
-  </si>
-  <si>
-    <t>Distribution of Public Key to Partners</t>
-  </si>
-  <si>
-    <t>Device Registration</t>
-  </si>
-  <si>
-    <t>Device Provider Registration</t>
-  </si>
-  <si>
-    <t>RD Service Registration</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>1. Generate a License Key as per below logic
-a. License Key generation to follow random pattern
-b. License Key should be alphanumeric
-c. Length should be 8 digits (Configurable)
-d. Should be mapped to an expiry</t>
-  </si>
-  <si>
-    <t>Yet to analyzed</t>
-  </si>
-  <si>
-    <t>Component already exist as TSP ID generator</t>
-  </si>
-  <si>
-    <t>Partner Management (MISP and E-KYC/Auth Partners)</t>
-  </si>
-  <si>
-    <t>1. Validate status of Lisence Key and respond as mentioned below
-a. If found expired, respond with "Your License Key is EXPIRED. Please regenrate a new License Key"
-b. If found temporarily sespended, respond with "Your License Key is temporarily SUSPENDED. Please contact MOSIP Administration"
-c. If found permanently blocked, respond with "Your License Key is BLOCKED. Please contact MOSIP Administration"</t>
-  </si>
-  <si>
-    <t>Map Policies to Partners</t>
-  </si>
-  <si>
-    <t>1. Receive request to register a Partner with follwing parameters
+4. Store the MISP in MOSIP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. All fields can be updated by giving a MISP ID
+2. MISP can also be activated or deactivated by using the update MISP Feature
+3. Deactivating/Activating a MISP will also temporirily suspend/activate  the corresponding Lisence Key
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. A MISP can be deleted by gicing a MISP ID in input
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fetch:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Fetch a list of all MISP or one MISP based on MISP ID</t>
+    </r>
+  </si>
+  <si>
+    <t>Manage mapping of Policies to Partners (Create/Update/Delete/Fetch)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Map following Auth Policies  to Partners
+     a. Auth Policies
+         1. OTP Trigger 
+         2. OTP Authentication
+         3. Demo Authentication 
+         4. Biometric Authentication - FMR Data Match 
+         5. Biometric Authentication - IIR Data Match  
+         6. Biometric Authentication - FID Data Match 
+     b. Auth Policies can be marked as Mandatory/Non-Mandatory
+     c. Each Partner can have multiple Auth Policies
+     b. E-Kyc Policies
+2. Map following E-Kyc Policies to Partners
+     a. eKYC - all combinations of eKYC demo fields
+     b. A partner can have multple E-Kyc policies 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Update Auth and E-Kyc policies assigned to a Partner</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Delete:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Delete a policy which is mapped to a partner</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Fetch:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Fetch all the list of Policies assigned to a Partner based on a Partner ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Receive request to register a Partner with follwing parameters
 a. Partner Name
 b. Partner Contact Name
 c. Partner Phone
 d. Partner Email ID
+e. Active/In-Active
 2. Issue and Map Partner ID
-3. Map Policies to the Partner
-a. Multiple Policies can be mapped to a Partner
-b. A Partner can have a policy for both Auth and E-KYC
-4. Store the Partner in MOSIP</t>
-  </si>
-  <si>
-    <t>Retrieve Policies based on Partner ID</t>
-  </si>
-  <si>
-    <t>1. Receive a request to map MISP to a Partner with MISP ID and Partner ID as Input
-2. There can be a many-to-mapping between MISPs and Partners</t>
-  </si>
-  <si>
-    <t>Partner Certificate Validation</t>
-  </si>
-  <si>
-    <t>1. Distribute Public Key to Partners for encrypting the Auth Request befoe sending it to the MOSIP
-2. Public key needs to be distributed priodically whenever the correspinding Private Key is rotated</t>
-  </si>
-  <si>
-    <t>1. Validate length of a License Key as configured and respond as mentioned below
-a. If found valid, respond with "VALID"
-b. if found invalid, respond with "INVALID"</t>
-  </si>
-  <si>
-    <t>1. Validate length of a Partner ID as configured and respond as mentioned below
-a. If found valid, respond with "VALID"
-b. if found invalid, respond with "INVALID"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Map following Policies to Partners
-a. Auth Policies ( can be Mandatory/Non-Mandatory)
-     1. OTP Trigger 
-     2. OTP Authentication
-     3. Demo Authentication 
-     4. Biometric Authentication - FMR Data Match 
-     5. Biometric Authentication - IIR Data Match  
-     6. Biometric Authentication - FID Data Match 
-b. E-Kyc Policies (can be Required/Not Required)
-    1. eKYC - all combinations of eKYC demo fields </t>
-  </si>
-  <si>
-    <t>1. Receive request to retreive policies based on Partner ID
-2. Respond appropirately if Partner ID does not exist</t>
-  </si>
-  <si>
-    <t>1. Upload Digital Certificate on Admin Portal for a Partner
-2. Verify CA Authority of the certificate
-3. Sign the certificate with MOSIP Certificate
-4. Respond to the source with the re-issued certificate
-5. Certificate will be uploaded by the MOSIP admin. The Registered Partner will send the certificate to the MOSIP Admin through ofline process. Re-issued certificate will be sent to the Partner by MOSIP admin through notification/offline process
-6. Private key to change priodically as per the Key Rotation Policy set by admin</t>
+3. Store the Partner in MOSIP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. All fields can be updated by giving a Partner ID
+2. A Partner can also be activated or deactivated by using the update partner Feature
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. A Partner can be deleted by giving a Partner ID in input
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fetch:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Fetch a list of all Partners or one Partner based on Partner ID
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Partner Registration (Create/Read/Update/Delete)</t>
+  </si>
+  <si>
+    <t>Manage mapping of MISP to Partners (Create/Update/Delete/Fetch)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Map a MISP to a Partner
+     a. There can a Many-to-Many mapping between MISPs and Partners
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Activate/Deactivate a mapping of a MISP and a Partner </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Delete:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Delete a mpping of a partner and a MISP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Fetch:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Fetch all the Partners associated to a MISP based on a MISP ID
+2. Fetch all the MISPs associated to a Partner based on a Partner ID</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +622,21 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -313,17 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -429,15 +847,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -445,31 +875,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -488,6 +924,23 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -637,13 +1090,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:F18"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Sr No." dataDxfId="4"/>
-    <tableColumn id="2" name="Module" dataDxfId="3"/>
-    <tableColumn id="3" name="Feature" dataDxfId="2"/>
-    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G16" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B2:G16"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Sr No." dataDxfId="5"/>
+    <tableColumn id="2" name="Module" dataDxfId="4"/>
+    <tableColumn id="3" name="Feature" dataDxfId="3"/>
+    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="2"/>
+    <tableColumn id="6" name="Mode" dataDxfId="1"/>
     <tableColumn id="5" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -913,48 +1367,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8.08984375" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="4" max="4" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.1796875" customWidth="1"/>
-    <col min="6" max="6" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -964,252 +1423,315 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="290" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" ht="319" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="G16" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="B14" s="4">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="4">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>18</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/requirements/MOSIP_Partner Management Requirements.xlsx
+++ b/docs/requirements/MOSIP_Partner Management Requirements.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Partner Management" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin Requirements" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
   <si>
     <t>Sr No.</t>
   </si>
@@ -132,31 +132,13 @@
     </r>
   </si>
   <si>
-    <t>To check Partner status</t>
-  </si>
-  <si>
-    <t>To Update/Delete a Partner</t>
-  </si>
-  <si>
-    <t>Includes Activation/Deactivation</t>
-  </si>
-  <si>
     <t>Mode</t>
   </si>
   <si>
     <t>UI</t>
   </si>
   <si>
-    <t>Also deactivate License key</t>
-  </si>
-  <si>
     <t>Fields to be reviwed</t>
-  </si>
-  <si>
-    <t>CRUD of MISP and Partner Mapping</t>
-  </si>
-  <si>
-    <t>For Fetching, we will receive MISP LK and Partner ID</t>
   </si>
   <si>
     <t>1. Distribute Public Key to Partners for encrypting the Auth Request befoe sending it to the MOSIP
@@ -184,116 +166,7 @@
 f. If found valid and active, respond with " Your License Key is VALID and ACTIVE".</t>
   </si>
   <si>
-    <t>To Update/Delete a MISP</t>
-  </si>
-  <si>
-    <t>Since a License Key can be expired, temporarily suspended or permanetly blocked, IDA will use this API to validate the status of LK when receiveing a Auth request</t>
-  </si>
-  <si>
     <t>MISP Creation/Updation/Deletion/Fetcher</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Create: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Receive request to register a MISP with follwing parameters
-a. MISP Name
-b. MISP Contact Name
-c. MISP Phone
-d. MISP Email ID
-e Is Active status
-2. Issue and Map MISP ID
-3. Issue and Map Lisence Key
-4. Store the MISP in MOSIP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Update:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. All fields can be updated by giving a MISP ID
-2. MISP can also be activated or deactivated by using the update MISP Feature
-3. Deactivating/Activating a MISP will also temporirily suspend/activate  the corresponding Lisence Key
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. A MISP can be deleted by gicing a MISP ID in input
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fetch:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Fetch a list of all MISP or one MISP based on MISP ID</t>
-    </r>
   </si>
   <si>
     <t>Manage mapping of Policies to Partners (Create/Update/Delete/Fetch)</t>
@@ -507,9 +380,6 @@
     </r>
   </si>
   <si>
-    <t>Partner Registration (Create/Read/Update/Delete)</t>
-  </si>
-  <si>
     <t>Manage mapping of MISP to Partners (Create/Update/Delete/Fetch)</t>
   </si>
   <si>
@@ -606,13 +476,285 @@
       <t>1. Fetch all the Partners associated to a MISP based on a MISP ID
 2. Fetch all the MISPs associated to a Partner based on a Partner ID</t>
     </r>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>MOSIP Platform Setup</t>
+  </si>
+  <si>
+    <t>Setup of MOSIP application data like List of Templates Types, List of Rejection Reasons, etc</t>
+  </si>
+  <si>
+    <t>Initial bulk setup of Platform Data through DB</t>
+  </si>
+  <si>
+    <t>Update/Delete through API - Role Controlled - Using Swagger</t>
+  </si>
+  <si>
+    <t>Kernel - all Mastedata APIs</t>
+  </si>
+  <si>
+    <t>ID Definition Setup</t>
+  </si>
+  <si>
+    <t>Setup activity that enables the Country admin to mark attributes that formulate the id for a Country - EG: Demographic data fields, Biometric data capture attributes</t>
+  </si>
+  <si>
+    <t>Initial Setup/Update through backend</t>
+  </si>
+  <si>
+    <t>Configurations Setup</t>
+  </si>
+  <si>
+    <t>Setup activity that enables the Country admin to configure the various parameters - EG: Duration of centre work hours, Setup Language preference-Primary/Secondary, Setup quality thresholds etc</t>
+  </si>
+  <si>
+    <t>Initial Setup/Update through Config Server</t>
+  </si>
+  <si>
+    <t>Process Flow Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup activity that enables the Country to mark/turn a process on/off, as relevant </t>
+  </si>
+  <si>
+    <t>Initial Setup/Update through backend - Solution yet to be identified</t>
+  </si>
+  <si>
+    <t>Set up Master Data</t>
+  </si>
+  <si>
+    <t>This includes setup of master data like setting up Registration Centre, Location Master etc</t>
+  </si>
+  <si>
+    <t>First time Setup - Bulk upload through DB</t>
+  </si>
+  <si>
+    <t>Update through API - Role Controlled - Using Swagger</t>
+  </si>
+  <si>
+    <t>Admin UI from Master Data (V2)</t>
+  </si>
+  <si>
+    <t>Register Devices</t>
+  </si>
+  <si>
+    <t>To register various devices used in the MOSIP eco-system, for registration and authentication – Scope/requirements to be elaborated by Shrikant/Anadi</t>
+  </si>
+  <si>
+    <t>Setup and Update through Admin Portal with UI</t>
+  </si>
+  <si>
+    <t>Kernel - Fetch Device Type, Fetch Device Spec, Create Device, Update Device, Device ID Generator</t>
+  </si>
+  <si>
+    <t>Utility to import through CSV/XLS</t>
+  </si>
+  <si>
+    <t>Register Machines</t>
+  </si>
+  <si>
+    <t>To register various machines used in the MOSIP eco-system, for registration – Scope/requirements to be elaborated by Shrikant/Anadi</t>
+  </si>
+  <si>
+    <t>Kernel - Fetch Machine Type, Fetch Machine Spec, Create Machine, Update Machine, Machine ID Generator</t>
+  </si>
+  <si>
+    <t>Registrer Centers</t>
+  </si>
+  <si>
+    <t>To register various centers used in the MOSIP eco-system, for registration – Scope/requirements to be elaborated by Shrikant/Anadi</t>
+  </si>
+  <si>
+    <t>Kernel - Fetch Center Type, Fetch Machine Spec, Create Center, Update Center, Center ID Generator</t>
+  </si>
+  <si>
+    <t>Center - Device Mapping</t>
+  </si>
+  <si>
+    <t>To map various devices used in the MOSIP eco-system, to centers  – Scope/requirements to be elaborated by Shrikant/Anadi</t>
+  </si>
+  <si>
+    <t>Kernel - Fetch/Create/Update Center-Device Mapping</t>
+  </si>
+  <si>
+    <t>Center - Machine Mapping</t>
+  </si>
+  <si>
+    <t>To map various machines used in the MOSIP eco-system, to centers  – Scope/requirements to be elaborated by Shrikant/Anadi</t>
+  </si>
+  <si>
+    <t>Kernel - Fetch/Create/Update Center-Machine Mapping</t>
+  </si>
+  <si>
+    <t>Center - User Mapping</t>
+  </si>
+  <si>
+    <t>To map various user across in the MOSIP eco-system, to centers  – Scope/requirements to be elaborated by Shrikant/Anadi</t>
+  </si>
+  <si>
+    <t>Kernel - Fetch/Create/Update Center-User Mapping</t>
+  </si>
+  <si>
+    <t>Supervisor Approval Changes</t>
+  </si>
+  <si>
+    <t>To enable a supervisor to approve Master data changes</t>
+  </si>
+  <si>
+    <t>Will be done through UI</t>
+  </si>
+  <si>
+    <t>RID and Stages of Packets</t>
+  </si>
+  <si>
+    <t>To enable an Admin to check the progress of a packet throughout processing based on a packet ID</t>
+  </si>
+  <si>
+    <t>Scope/Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Partner Management</t>
+  </si>
+  <si>
+    <t>Sub-Feature</t>
+  </si>
+  <si>
+    <t>Kernel - MISP ID Generator</t>
+  </si>
+  <si>
+    <t>Kernel - Partner ID Generation</t>
+  </si>
+  <si>
+    <t>Partner Create/Read/Update/Delete</t>
+  </si>
+  <si>
+    <t>Since a License Key can be expired, temporarily suspended or permanetly blocked, IDA will use this API to validate the status of License Key when receiveing a Auth request</t>
+  </si>
+  <si>
+    <t>Ability to DEACTIVATE/RE-ACTIVATE/BLOCK License Key</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Receive request to register a MISP with follwing parameters
+a. MISP Name
+b. MISP Contact Name
+c. MISP Phone
+d. MISP Email ID
+e Is Active status
+2. Issue and Map MISP ID
+3. Issue and Map Lisence Key
+4. Store the MISP in MOSIP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. All fields can be updated by giving a MISP ID
+2. MISP can also be activated or deactivated by using the update MISP Feature
+3. Deactivating/Activating a MISP will also temporirily deactivate/activate the corresponding Lisence Key
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. A MISP can be deleted by giving a MISP ID in input
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fetch:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Fetch a list of all MISP or one MISP based on MISP ID</t>
+    </r>
+  </si>
+  <si>
+    <t>DEACTIVATE License Key:
+1. Ability to temparorily DEACTIVATE a License Key untill a give n timestamp
+2. License Key will Auto-Active after the given TImeStamp
+RE-ACTIVATE License Key:
+1. Receive a request to RE-ACTIVATE a DEACTIVATED License Key
+BLOCK License Key:
+1. Receive a request to Permenently BLOCK a License Key
+2. A blocked key cannot be unblocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,8 +784,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,8 +806,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -860,11 +1016,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -892,6 +1186,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -900,12 +1243,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -949,6 +1322,23 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -986,6 +1376,24 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1090,14 +1498,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G16" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="B2:G16"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Sr No." dataDxfId="5"/>
-    <tableColumn id="2" name="Module" dataDxfId="4"/>
-    <tableColumn id="3" name="Feature" dataDxfId="3"/>
-    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="2"/>
-    <tableColumn id="6" name="Mode" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:I17" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="B2:I17"/>
+  <sortState ref="B3:I17">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Sr No." dataDxfId="7"/>
+    <tableColumn id="2" name="Module" dataDxfId="6"/>
+    <tableColumn id="8" name="Feature" dataDxfId="5"/>
+    <tableColumn id="3" name="Sub-Feature" dataDxfId="4"/>
+    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="3"/>
+    <tableColumn id="6" name="Mode" dataDxfId="2"/>
+    <tableColumn id="7" name="Dependency" dataDxfId="1"/>
     <tableColumn id="5" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1367,33 +1780,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8.08984375" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="4" max="4" width="60.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.1796875" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1404,16 +1821,22 @@
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1421,197 +1844,247 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="2:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" ht="174" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="290" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" ht="290" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" ht="319" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="261" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" ht="261" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" ht="319" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" ht="116" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:9" ht="116" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -1619,61 +2092,93 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="G17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1685,52 +2190,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D6"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.453125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="57.54296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="1" spans="2:7" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="F1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
+      <c r="G1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="40"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="42"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="40"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="40"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="40"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="40"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="2:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/docs/requirements/MOSIP_Partner Management Requirements.xlsx
+++ b/docs/requirements/MOSIP_Partner Management Requirements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Sr No.</t>
   </si>
@@ -85,16 +85,84 @@
     <t>Partner ID Validation</t>
   </si>
   <si>
+    <t>1. Validate length of a Partner ID as configured and respond as mentioned below
+a. If found valid, respond with "Valid"
+b. if found invalid, respond with "Invalid"</t>
+  </si>
+  <si>
+    <t>1. Validate length of a License Key as configured and respond as mentioned below
+a. If found valid, respond with "Valid"
+b. if found invalid, respond with "Invalid"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kernel </t>
   </si>
   <si>
+    <t>Policy ID Generation</t>
+  </si>
+  <si>
+    <t>1. Generate Policy ID for following policies
+a. OTP Trigger 
+b. OTP Authentication
+c. Demo Authentication 
+d. Biometric Authentication - FMR Data Match 
+e. Biometric Authentication - IIR Data Match  
+f. Biometric Authentication - FID Data Match 
+g. Static Pin Authentication
+h. eKYC - all combinations of eKYC demo fields 
+i. Masked UIN
+j. UIN
+2. Generate Policy id as per below logic
+a. Random ID generation
+b. Length should be 10 Digits (Configurable)</t>
+  </si>
+  <si>
+    <t>Policy ID Validation</t>
+  </si>
+  <si>
+    <t>1. Validate length of a Policy ID as configured and respond as mentioned below
+a. If found valid, respond with "Valid"
+b. if found invalid, respond with "Invalid"</t>
+  </si>
+  <si>
+    <t>Policy ID</t>
+  </si>
+  <si>
+    <t>1. Receive request to retreive policies based on Partner ID and Policy ID
+2. Respond appropirately if Partner ID or Policy ID does not exist</t>
+  </si>
+  <si>
     <t>Partner Registration</t>
   </si>
   <si>
     <t>MISP - Partner Mapping</t>
   </si>
   <si>
+    <t>1. Receive a request to map MISP to a Partner with MISP ID and Partner ID as Input
+2. There can ve a many-to-mapping between MISPs and Partners</t>
+  </si>
+  <si>
+    <t>Partner Certiicate Validation</t>
+  </si>
+  <si>
+    <t>Partner Certificate Signing and RE-issueing</t>
+  </si>
+  <si>
+    <t>1. Receive certificate from Partner
+2. Verify CA Authority of the certificate</t>
+  </si>
+  <si>
     <t>Distribution of Public Key to Partners</t>
+  </si>
+  <si>
+    <t>1. Distribute Public Key to Partners correspinding to the Private Key used to signed the Certificate
+2. Public key needs to be distributed priodically whenever the Private Key is rotated</t>
+  </si>
+  <si>
+    <t>1. Receive certificate from Partner during Partner Registration
+2. Sign the Partner Certificate with MOSIP Private Key and issue a certificate chain
+3. Re-issue certficate back to the Partner
+4. Private key to change priodically as per the Key Rotation Policy set by admin</t>
   </si>
   <si>
     <t>Device Registration</t>
@@ -114,24 +182,6 @@
 b. License Key should be alphanumeric
 c. Length should be 8 digits (Configurable)
 d. Should be mapped to an expiry</t>
-  </si>
-  <si>
-    <t>Yet to analyzed</t>
-  </si>
-  <si>
-    <t>Component already exist as TSP ID generator</t>
-  </si>
-  <si>
-    <t>Partner Management (MISP and E-KYC/Auth Partners)</t>
-  </si>
-  <si>
-    <t>1. Validate status of Lisence Key and respond as mentioned below
-a. If found expired, respond with "Your License Key is EXPIRED. Please regenrate a new License Key"
-b. If found temporarily sespended, respond with "Your License Key is temporarily SUSPENDED. Please contact MOSIP Administration"
-c. If found permanently blocked, respond with "Your License Key is BLOCKED. Please contact MOSIP Administration"</t>
-  </si>
-  <si>
-    <t>Map Policies to Partners</t>
   </si>
   <si>
     <t>1. Receive request to register a Partner with follwing parameters
@@ -140,58 +190,25 @@
 c. Partner Phone
 d. Partner Email ID
 2. Issue and Map Partner ID
-3. Map Policies to the Partner
+3. Map Policy ID to the Partner
 a. Multiple Policies can be mapped to a Partner
 b. A Partner can have a policy for both Auth and E-KYC
 4. Store the Partner in MOSIP</t>
   </si>
   <si>
-    <t>Retrieve Policies based on Partner ID</t>
-  </si>
-  <si>
-    <t>1. Receive a request to map MISP to a Partner with MISP ID and Partner ID as Input
-2. There can be a many-to-mapping between MISPs and Partners</t>
-  </si>
-  <si>
-    <t>Partner Certificate Validation</t>
-  </si>
-  <si>
-    <t>1. Distribute Public Key to Partners for encrypting the Auth Request befoe sending it to the MOSIP
-2. Public key needs to be distributed priodically whenever the correspinding Private Key is rotated</t>
-  </si>
-  <si>
-    <t>1. Validate length of a License Key as configured and respond as mentioned below
-a. If found valid, respond with "VALID"
-b. if found invalid, respond with "INVALID"</t>
-  </si>
-  <si>
-    <t>1. Validate length of a Partner ID as configured and respond as mentioned below
-a. If found valid, respond with "VALID"
-b. if found invalid, respond with "INVALID"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Map following Policies to Partners
-a. Auth Policies ( can be Mandatory/Non-Mandatory)
-     1. OTP Trigger 
-     2. OTP Authentication
-     3. Demo Authentication 
-     4. Biometric Authentication - FMR Data Match 
-     5. Biometric Authentication - IIR Data Match  
-     6. Biometric Authentication - FID Data Match 
-b. E-Kyc Policies (can be Required/Not Required)
-    1. eKYC - all combinations of eKYC demo fields </t>
-  </si>
-  <si>
-    <t>1. Receive request to retreive policies based on Partner ID
-2. Respond appropirately if Partner ID does not exist</t>
-  </si>
-  <si>
-    <t>1. Upload Digital Certificate on Admin Portal for a Partner
-2. Verify CA Authority of the certificate
-3. Sign the certificate with MOSIP Certificate
-4. Respond to the source with the re-issued certificate
-5. Certificate will be uploaded by the MOSIP admin. The Registered Partner will send the certificate to the MOSIP Admin through ofline process. Re-issued certificate will be sent to the Partner by MOSIP admin through notification/offline process
-6. Private key to change priodically as per the Key Rotation Policy set by admin</t>
+    <t>Yet to analyzed</t>
+  </si>
+  <si>
+    <t>Component already exist as TSP ID generator</t>
+  </si>
+  <si>
+    <t>Partner Management (MISP and E-KYC/Auth Partners)</t>
+  </si>
+  <si>
+    <t>1. Validate status of Lisence Key and respond as mentioned below
+a. If found expired, respond with "Your License Key is EXPIRED. Please regenrate a new License Key"
+b. If found temporarily sespended, respond with "Your License Key is temporarily SUSPENDED. Please contact MOSIP Administration"
+c. If found permanently blocked, respond with "Your License Key is BLOCKED. Please contact MOSIP Administration"</t>
   </si>
 </sst>
 </file>
@@ -433,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -444,6 +461,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -475,6 +495,29 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -598,29 +641,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -637,14 +657,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B2:F20"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Sr No." dataDxfId="4"/>
-    <tableColumn id="2" name="Module" dataDxfId="3"/>
-    <tableColumn id="3" name="Feature" dataDxfId="2"/>
-    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="1"/>
-    <tableColumn id="5" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" name="Sr No." dataDxfId="6"/>
+    <tableColumn id="2" name="Module" dataDxfId="5"/>
+    <tableColumn id="3" name="Feature" dataDxfId="4"/>
+    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="3"/>
+    <tableColumn id="5" name="Comments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -913,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -929,28 +949,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -964,11 +984,11 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -982,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -997,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1012,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1057,149 +1077,179 @@
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="203" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="4">
         <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
-        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="145" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" ht="58" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>26</v>
+      <c r="D20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/requirements/MOSIP_Partner Management Requirements.xlsx
+++ b/docs/requirements/MOSIP_Partner Management Requirements.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0112AB61-B9E9-4FBF-BB5B-8EBBCF0B8CC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Sr No.</t>
   </si>
@@ -193,11 +195,14 @@
 5. Certificate will be uploaded by the MOSIP admin. The Registered Partner will send the certificate to the MOSIP Admin through ofline process. Re-issued certificate will be sent to the Partner by MOSIP admin through notification/offline process
 6. Private key to change priodically as per the Key Rotation Policy set by admin</t>
   </si>
+  <si>
+    <t>Total Story Points Esimates (Including Desing, Cut Effort, DB Design, Testing, Requirement Detailing, Code Review, Bug Fixing, Documentation, Release Notes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -465,6 +470,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,14 +645,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B2:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:F18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B2:F18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Sr No." dataDxfId="4"/>
-    <tableColumn id="2" name="Module" dataDxfId="3"/>
-    <tableColumn id="3" name="Feature" dataDxfId="2"/>
-    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="1"/>
-    <tableColumn id="5" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sr No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Module" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Feature" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Acceptance Criteria" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -912,10 +920,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1212,4 +1220,32 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2CCB93-A41D-477D-B011-82FD700413FA}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/requirements/MOSIP_Partner Management Requirements.xlsx
+++ b/docs/requirements/MOSIP_Partner Management Requirements.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0112AB61-B9E9-4FBF-BB5B-8EBBCF0B8CC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E01537E2-DE64-4A6C-8F2C-618FF5AC9316}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,6 +461,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,9 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -937,13 +937,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2CCB93-A41D-477D-B011-82FD700413FA}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,11 +1237,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
